--- a/src/test/resources/チェックシート.xlsx
+++ b/src/test/resources/チェックシート.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="6165" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="6165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象VM" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="172">
   <si>
     <t>#</t>
   </si>
@@ -383,7 +383,53 @@
     <t>mem_total</t>
   </si>
   <si>
-    <t>mem_free</t>
+    <t>requiement_for_oracle</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>proxy_global</t>
+  </si>
+  <si>
+    <t>kdump</t>
+  </si>
+  <si>
+    <t>crash_size</t>
+  </si>
+  <si>
+    <t>iptables</t>
+  </si>
+  <si>
+    <t>runlevel</t>
+  </si>
+  <si>
+    <t>resolve_conf</t>
+  </si>
+  <si>
+    <t>nameservers</t>
+  </si>
+  <si>
+    <t>vncserver</t>
+  </si>
+  <si>
+    <t>yumコマンドプロキシ設定有無</t>
+  </si>
+  <si>
+    <t>testtestdb</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>192.168.10.2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>192.168.10.3</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -391,236 +437,108 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>pkg_common</t>
-  </si>
-  <si>
-    <t>pkg_el5</t>
+    <t>Test</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>pkg_el6</t>
+    <t>RuleDB</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>requiement_for_oracle</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>x =~ /CentOS/</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
     <t>mount_iso</t>
-    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
     <t>oracle_package</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>oracle</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>proxy_global</t>
-  </si>
-  <si>
-    <t>kdump</t>
-  </si>
-  <si>
-    <t>crash_size</t>
-  </si>
-  <si>
-    <t>iptables</t>
-  </si>
-  <si>
-    <t>runlevel</t>
-  </si>
-  <si>
-    <t>resolve_conf</t>
-  </si>
-  <si>
-    <t>nameservers</t>
-  </si>
-  <si>
-    <t>se_mode</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>vncserver</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ISOマウントの有無</t>
-    <rPh sb="8" eb="10">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>mount コマンドで.isoファイルのマウント情報取得</t>
-    <rPh sb="24" eb="26">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Oracleの有無</t>
-    <rPh sb="7" eb="9">
-      <t>ウム</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
-    <rPh sb="61" eb="63">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
     <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
-    <rPh sb="26" eb="28">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>クラッシュリカバリ</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
-    <rPh sb="21" eb="23">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>クラッシュダンプサイズ</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>/sys/kernel/kexec_crash_size を検索</t>
-    <rPh sb="30" eb="32">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SELinuxステータス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>sestatus コマンドからステータス検索</t>
-    <rPh sb="20" eb="22">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>iptablesステータス</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>chkconfig --list コマンドで、iptables ファイヤーウォールの自動起動設定を検索</t>
-    <rPh sb="42" eb="44">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>vncserverステータス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
-    <rPh sb="43" eb="45">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ランレベル</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
 </t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>DNS設定</t>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
 </t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>DNSサーバ名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>sestatus</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>testtestdb</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>192.168.10.2</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>192.168.10.3</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>vncserverステータス</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -628,63 +546,13 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Test</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>RuleDB</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Win32_PnPSignedDriverから、ドライバー名、バージョンを検索。ドライバー名にNetworkを含むドライバーのみ絞り込み</t>
-    <rPh sb="45" eb="46">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>storage_timeout</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Windows</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ストレージタイムアウト値</t>
-    <rPh sb="11" eb="12">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>hw_address</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Linux</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>MACアドレス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>x =~ /CentOS/</t>
-    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -746,8 +614,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -805,7 +672,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,8 +688,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,16 +741,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="3"/>
     <cellStyle name="標準 3" xfId="4"/>
     <cellStyle name="標準 4" xfId="2"/>
     <cellStyle name="標準 5" xfId="1"/>
+    <cellStyle name="標準 6" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1226,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>9</v>
@@ -1252,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>14</v>
@@ -1275,25 +1155,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -1415,22 +1295,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E52"/>
+  <dimension ref="A4:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="54.875" customWidth="1"/>
-    <col min="6" max="9" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="7" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1444,10 +1325,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1460,11 +1344,12 @@
       <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>25</v>
@@ -1475,9 +1360,10 @@
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>27</v>
@@ -1488,9 +1374,10 @@
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>29</v>
@@ -1501,9 +1388,10 @@
       <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
         <v>31</v>
@@ -1514,9 +1402,10 @@
       <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>33</v>
@@ -1527,9 +1416,10 @@
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1542,11 +1432,12 @@
       <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1559,11 +1450,12 @@
       <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1576,11 +1468,12 @@
       <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1593,11 +1486,12 @@
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -1610,11 +1504,12 @@
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1627,11 +1522,12 @@
       <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -1644,11 +1540,12 @@
       <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>55</v>
@@ -1659,9 +1556,10 @@
       <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>57</v>
@@ -1672,9 +1570,10 @@
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>59</v>
@@ -1685,9 +1584,10 @@
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>61</v>
@@ -1698,9 +1598,10 @@
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>63</v>
@@ -1711,9 +1612,10 @@
       <c r="D22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -1726,11 +1628,12 @@
       <c r="D23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -1743,33 +1646,36 @@
       <c r="D24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -1782,24 +1688,28 @@
       <c r="D27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
@@ -1812,11 +1722,12 @@
       <c r="D29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>77</v>
       </c>
@@ -1829,11 +1740,12 @@
       <c r="D30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>20</v>
       </c>
@@ -1846,11 +1758,12 @@
       <c r="D31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>20</v>
       </c>
@@ -1863,11 +1776,14 @@
       <c r="D32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>20</v>
       </c>
@@ -1880,11 +1796,12 @@
       <c r="D33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>20</v>
       </c>
@@ -1897,11 +1814,12 @@
       <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>20</v>
       </c>
@@ -1914,260 +1832,258 @@
       <c r="D35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B37" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="9"/>
+        <v>142</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="D37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E37" s="9"/>
+      <c r="F37" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="D38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B39" s="9" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C44" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9" t="s">
+      <c r="C45" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A49" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A48" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>135</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.15">
-      <c r="A52" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>154</v>
-      </c>
+      <c r="F49" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -2178,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E33"/>
+  <dimension ref="A4:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2189,11 +2105,12 @@
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="56.625" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="56.625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2207,10 +2124,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -2223,11 +2143,12 @@
       <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -2240,9 +2161,10 @@
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -2255,9 +2177,10 @@
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -2270,9 +2193,10 @@
       <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -2285,9 +2209,10 @@
       <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -2300,9 +2225,10 @@
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -2315,11 +2241,12 @@
       <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2332,11 +2259,12 @@
       <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -2349,11 +2277,12 @@
       <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>55</v>
@@ -2364,9 +2293,10 @@
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>57</v>
@@ -2377,9 +2307,10 @@
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>59</v>
@@ -2390,9 +2321,10 @@
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -2405,11 +2337,12 @@
       <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>101</v>
@@ -2418,9 +2351,10 @@
       <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>102</v>
@@ -2429,9 +2363,10 @@
       <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -2444,11 +2379,12 @@
       <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -2461,11 +2397,14 @@
       <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2478,11 +2417,12 @@
       <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -2495,11 +2435,14 @@
       <c r="D23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -2512,80 +2455,90 @@
       <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="C25" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -2598,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2777,7 +2730,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="F14" s="6"/>
     </row>

--- a/src/test/resources/チェックシート.xlsx
+++ b/src/test/resources/チェックシート.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="6165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="チェック対象VM" sheetId="1" r:id="rId1"/>
@@ -17,31 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="172">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>OSAccountID</t>
-  </si>
-  <si>
-    <t>vCenterID</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>VerifyID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="175">
   <si>
     <t>win2012</t>
   </si>
@@ -52,13 +28,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>win2012.ostrich</t>
-  </si>
-  <si>
     <t>RuleAP</t>
-  </si>
-  <si>
-    <t>ostrich</t>
   </si>
   <si>
     <t>Linux</t>
@@ -417,19 +387,104 @@
     <t>yumコマンドプロキシ設定有無</t>
   </si>
   <si>
-    <t>testtestdb</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>192.168.10.2</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>192.168.10.3</t>
+    <t>x =~ /CentOS/</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>mem_free</t>
+  </si>
+  <si>
+    <t>hw_address</t>
+  </si>
+  <si>
+    <t>MACアドレス</t>
+  </si>
+  <si>
+    <t>mount_iso</t>
+  </si>
+  <si>
+    <t>ISOマウントの有無</t>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント情報取得</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>Oracleの有無</t>
+  </si>
+  <si>
+    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
+  </si>
+  <si>
+    <t>oracle_package</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
+  </si>
+  <si>
+    <t>クラッシュリカバリ</t>
+  </si>
+  <si>
+    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
+  </si>
+  <si>
+    <t>クラッシュダンプサイズ</t>
+  </si>
+  <si>
+    <t>/sys/kernel/kexec_crash_size を検索</t>
+  </si>
+  <si>
+    <t>iptablesステータス</t>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、iptables ファイヤーウォールの自動起動設定を検索</t>
+  </si>
+  <si>
+    <t>ランレベル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
+</t>
+  </si>
+  <si>
+    <t>DNS設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
+</t>
+  </si>
+  <si>
+    <t>DNSサーバ名</t>
+  </si>
+  <si>
+    <t>sestatus</t>
+  </si>
+  <si>
+    <t>SELinuxステータス</t>
+  </si>
+  <si>
+    <t>sestatus コマンドからステータス検索</t>
+  </si>
+  <si>
+    <t>se_mode</t>
+  </si>
+  <si>
+    <t>vncserverステータス</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
+  </si>
+  <si>
+    <t>oracle_module</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -437,129 +492,179 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Test</t>
+    <t>Win32_PnPSignedDriverから、ドライバー名、バージョンを検索。ドライバー名にNetworkを含むドライバーのみ絞り込み</t>
+  </si>
+  <si>
+    <t>storage_timeout</t>
+  </si>
+  <si>
+    <t>ストレージタイムアウト値</t>
+  </si>
+  <si>
+    <t>testtestdb</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>RuleDB</t>
+    <t>定義</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>x =~ /CentOS/</t>
+    <t>server_name</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>デバイス</t>
-  </si>
-  <si>
-    <t>mem_free</t>
-  </si>
-  <si>
-    <t>hw_address</t>
-  </si>
-  <si>
-    <t>MACアドレス</t>
-  </si>
-  <si>
-    <t>mount_iso</t>
-  </si>
-  <si>
-    <t>ISOマウントの有無</t>
-  </si>
-  <si>
-    <t>mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
-    <t>oracle</t>
-  </si>
-  <si>
-    <t>Oracleの有無</t>
-  </si>
-  <si>
-    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
-  </si>
-  <si>
-    <t>oracle_package</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /etc/yum.conf から、proxyサーバ定義を検索</t>
-  </si>
-  <si>
-    <t>クラッシュリカバリ</t>
-  </si>
-  <si>
-    <t>kdump クラッシュリカバリーサービスの自動起動設定</t>
-  </si>
-  <si>
-    <t>クラッシュダンプサイズ</t>
-  </si>
-  <si>
-    <t>/sys/kernel/kexec_crash_size を検索</t>
-  </si>
-  <si>
-    <t>iptablesステータス</t>
-  </si>
-  <si>
-    <t>chkconfig --list コマンドで、iptables ファイヤーウォールの自動起動設定を検索</t>
-  </si>
-  <si>
-    <t>ランレベル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索
-</t>
-  </si>
-  <si>
-    <t>DNS設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/etc/resolve.conf から nameserver を検索
-</t>
-  </si>
-  <si>
-    <t>DNSサーバ名</t>
-  </si>
-  <si>
-    <t>sestatus</t>
-  </si>
-  <si>
-    <t>SELinuxステータス</t>
-  </si>
-  <si>
-    <t>sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
-    <t>se_mode</t>
-  </si>
-  <si>
-    <t>vncserverステータス</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chkconfig --listコマンドで、vncserver ファイヤーウォールの自動起動設定を検索</t>
-  </si>
-  <si>
-    <t>oracle_module</t>
+    <t>検査対象サーバ名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Linux</t>
+    <t>ip</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Win32_PnPSignedDriverから、ドライバー名、バージョンを検索。ドライバー名にNetworkを含むドライバーのみ絞り込み</t>
-  </si>
-  <si>
-    <t>storage_timeout</t>
-  </si>
-  <si>
-    <t>ストレージタイムアウト値</t>
+    <t>SSH接続、PowerShell内コマンドで接続するIPアドレス</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>チェックシートのID。設定ファイル内evidence.sheet_name_specのIDを指定</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>os_account_id</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ローカル採取で使用するアカウントID。OSの情報採取の場合、対象サーバのOSアカウントを指定し、設定ファイル内パラメータaccount.{ドメイン}.{ID}のIDを指定する。リモート採取の場合は未記入</t>
+    <rPh sb="44" eb="46">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>リモート採取で使用するアカウントID。vCenterサーバなどリモートから情報採取をする場合のリモートのアカウントIDを指定する。ローカル採取の場合は未記入</t>
+    <rPh sb="69" eb="71">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>リモート採取をする場合の、検査対象サーバ名のエイリアス名。vCenterの場合、vm名。ローカル採取の場合は未記入</t>
+    <rPh sb="4" eb="6">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>win2012</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>verify_id</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検証ルール」のIDを指定。検証が不要な場合は未記入</t>
+    <rPh sb="4" eb="6">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ミキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>remote_account_id</t>
+  </si>
+  <si>
+    <t>remote_alias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +720,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -692,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,15 +842,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -752,6 +856,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1059,232 +1169,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I18"/>
+  <dimension ref="B4:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="8" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17">
+        <v>4</v>
+      </c>
+      <c r="H4" s="17">
+        <v>5</v>
+      </c>
+      <c r="I4" s="17">
+        <v>6</v>
+      </c>
+      <c r="J4" s="17">
+        <v>7</v>
+      </c>
+      <c r="K4" s="17">
+        <v>8</v>
+      </c>
+      <c r="L4" s="17">
+        <v>9</v>
+      </c>
+      <c r="M4" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E5" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="B7" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="2:13" ht="48" x14ac:dyDescent="0.15">
+      <c r="B8" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="B9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="2:13" ht="36" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="2:13" ht="24" x14ac:dyDescent="0.15">
+      <c r="B11" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -1313,52 +1500,52 @@
   <sheetData>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
@@ -1366,13 +1553,13 @@
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
@@ -1380,13 +1567,13 @@
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
@@ -1394,13 +1581,13 @@
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
@@ -1408,153 +1595,153 @@
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
@@ -1562,13 +1749,13 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
@@ -1576,13 +1763,13 @@
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
@@ -1590,13 +1777,13 @@
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
@@ -1604,61 +1791,61 @@
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
@@ -1666,424 +1853,424 @@
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="15" t="s">
-        <v>144</v>
+      <c r="F37" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="15" t="s">
-        <v>147</v>
+      <c r="F38" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>121</v>
+      <c r="A40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A45" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+      <c r="A49" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="15" t="s">
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="33" x14ac:dyDescent="0.15">
-      <c r="A49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
@@ -2096,7 +2283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2112,186 +2299,186 @@
   <sheetData>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
@@ -2299,13 +2486,13 @@
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
@@ -2313,43 +2500,43 @@
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
@@ -2357,121 +2544,121 @@
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
@@ -2567,31 +2754,31 @@
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -2599,49 +2786,49 @@
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -2649,13 +2836,13 @@
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2663,13 +2850,13 @@
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -2677,13 +2864,13 @@
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -2691,29 +2878,29 @@
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -2721,29 +2908,29 @@
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2751,29 +2938,29 @@
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -2781,13 +2968,13 @@
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -2795,13 +2982,13 @@
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2809,13 +2996,13 @@
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -2823,13 +3010,13 @@
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -2837,13 +3024,13 @@
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2851,13 +3038,13 @@
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
